--- a/docs/assets/disciplinas/LOB1260.xlsx
+++ b/docs/assets/disciplinas/LOB1260.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Complementar a formação dos estudantes abordando, com maior profundidade, tópicos atuais e relevantes e atualizar com temas no estado da arte.</t>
+    <t>5817650 - Érica Leonor Romão</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,13 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5817650 - Érica Leonor Romão</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>A definir de acordo com o tópico programado</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -100,9 +97,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>O conteúdo desta disciplina optativa será de acordo com o tópico a ser programado, devendo abordar assuntos complementares ao conteúdo regular do curso de graduação.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -115,25 +109,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Esta disciplina deverá conter no mínimo duas avaliações denominadas P1 e P2. A P2 deverá englobar toda a matéria ministrada ao longo do semestre, abrangendo todos os tópicos previstos na ementa. As avalições podem ser: seminários, trabalhos, projetos ou outra forma de avaliação definida pelo professor. Sendo necessário no mínimo uma avaliação na forma de prova escrita.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média ponderada das avaliações (M).</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>A recuperação será composta por uma única prova (RC) englobando toda a matéria ministrada ao longo do semestre. A média final, para os alunos em recuperação, será calculada com base na relação: MF=(M+RC)/2</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>Livros, artigos ou texto fornecido pelo docente responsável extraídos de livros ou revistas especializadas na área de Meio Ambiente.</t>
   </si>
 </sst>
 </file>
@@ -489,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -620,34 +611,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -661,64 +655,53 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOB1260.xlsx
+++ b/docs/assets/disciplinas/LOB1260.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Complementar a formação dos estudantes abordando, com maior profundidade, tópicos atuais e relevantes e atualizar com temas no estado da arte.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Complement the training of students by addressing, in greater depth, current and relevant topics and updating them with themes in the state of the art</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5817650 - Érica Leonor Romão</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Complement the training of students by addressing, in greater depth, current and relevant topics and updating them with themes in the state of the art</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>A definir de acordo com o tópico programado</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>O conteúdo desta disciplina optativa será de acordo com o tópico a ser programado, devendo abordar assuntos complementares ao conteúdo regular do curso de graduação.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +115,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Esta disciplina deverá conter no mínimo duas avaliações denominadas P1 e P2. A P2 deverá englobar toda a matéria ministrada ao longo do semestre, abrangendo todos os tópicos previstos na ementa. As avalições podem ser: seminários, trabalhos, projetos ou outra forma de avaliação definida pelo professor. Sendo necessário no mínimo uma avaliação na forma de prova escrita.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Esta disciplina deverá conter no mínimo duas avaliações denominadas P1 e P2. A P2 deverá englobar toda a matéria ministrada ao longo do semestre, abrangendo todos os tópicos previstos na ementa. As avalições podem ser: seminários, trabalhos, projetos ou outra forma de avaliação definida pelo professor. Sendo necessário no mínimo uma avaliação na forma de prova escrita.</t>
+    <t>Média ponderada das avaliações (M).</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média ponderada das avaliações (M).</t>
+    <t>A recuperação será composta por uma única prova (RC) englobando toda a matéria ministrada ao longo do semestre. A média final, para os alunos em recuperação, será calculada com base na relação: MF=(M+RC)/2</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>A recuperação será composta por uma única prova (RC) englobando toda a matéria ministrada ao longo do semestre. A média final, para os alunos em recuperação, será calculada com base na relação: MF=(M+RC)/2</t>
+    <t>Livros, artigos ou texto fornecido pelo docente responsável extraídos de livros ou revistas especializadas na área de Meio Ambiente.</t>
   </si>
 </sst>
 </file>
@@ -480,13 +489,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -611,37 +620,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -655,53 +661,64 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
